--- a/iaff_assistant/documents/VISA/Poland Visa.xlsx
+++ b/iaff_assistant/documents/VISA/Poland Visa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZPI\ZPI_VAF\iaff_assistant\documents\VISA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11275D62-9C3D-4D1E-B212-BCD3891C205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A12C66-36E9-43E0-840A-81712706C04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6277A8DF-D57C-4B48-BAA0-C7CCECB3B784}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6277A8DF-D57C-4B48-BAA0-C7CCECB3B784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>short_description</t>
   </si>
@@ -128,6 +128,45 @@
   <si>
     <t>Explore this comprehensive guide on obtaining various types of visas for Poland, including Schengen, work, student, and family visas, along with detailed application procedures and requirements.</t>
   </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>accom</t>
+  </si>
+  <si>
+    <t>insure</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>refugee</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>documentType</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
 </sst>
 </file>
 
@@ -171,12 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -497,38 +533,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2D68B0-DC03-4744-8792-75535C75E836}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/iaff_assistant/documents/VISA/Poland Visa.xlsx
+++ b/iaff_assistant/documents/VISA/Poland Visa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZPI\ZPI_VAF\iaff_assistant\documents\VISA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\VISA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A12C66-36E9-43E0-840A-81712706C04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1E82D5-6966-4CEC-8A29-12C185E0E54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6277A8DF-D57C-4B48-BAA0-C7CCECB3B784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{6277A8DF-D57C-4B48-BAA0-C7CCECB3B784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>short_description</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>Visa</t>
   </si>
 </sst>
 </file>
@@ -535,18 +541,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2D68B0-DC03-4744-8792-75535C75E836}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -605,6 +611,30 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/iaff_assistant/documents/VISA/Poland Visa.xlsx
+++ b/iaff_assistant/documents/VISA/Poland Visa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\VISA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDIA\ZPI\ZPI_VAF\iaff_assistant\documents\VISA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1E82D5-6966-4CEC-8A29-12C185E0E54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD124CE-2B80-43BF-A311-28EFF6BD00CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{6277A8DF-D57C-4B48-BAA0-C7CCECB3B784}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="13584" windowHeight="8964" xr2:uid="{6277A8DF-D57C-4B48-BAA0-C7CCECB3B784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>short_description</t>
   </si>
@@ -173,6 +173,9 @@
   <si>
     <t>Visa</t>
   </si>
+  <si>
+    <t>C:Users/vano/Documents/GitHub/ZPI_VAF/iaff_assistant/images/Cards/VISA.png</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +230,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,18 +544,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2D68B0-DC03-4744-8792-75535C75E836}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -635,6 +638,9 @@
       </c>
       <c r="M2">
         <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/iaff_assistant/documents/VISA/Poland Visa.xlsx
+++ b/iaff_assistant/documents/VISA/Poland Visa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDIA\ZPI\ZPI_VAF\iaff_assistant\documents\VISA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\VISA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD124CE-2B80-43BF-A311-28EFF6BD00CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C07DEC1-6EDB-4051-BB2E-85352577033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="13584" windowHeight="8964" xr2:uid="{6277A8DF-D57C-4B48-BAA0-C7CCECB3B784}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{6277A8DF-D57C-4B48-BAA0-C7CCECB3B784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,14 +174,14 @@
     <t>Visa</t>
   </si>
   <si>
-    <t>C:Users/vano/Documents/GitHub/ZPI_VAF/iaff_assistant/images/Cards/VISA.png</t>
+    <t>https://iaffimages.blob.core.windows.net/imagecontainer/VISA.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,10 +225,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,9 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,9 +258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +298,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -392,7 +404,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,14 +560,14 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -639,11 +651,14 @@
       <c r="M2">
         <v>7</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{C96D6420-1B0F-4573-89D6-9263566B71C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>